--- a/Data_all/Data_5_all.xlsx
+++ b/Data_all/Data_5_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -141,6 +141,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,7 +185,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,11 +230,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -532,40 +539,40 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1017,23 +1024,109 @@
         <v>0.94733333333333325</v>
       </c>
     </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ref="C8:L8" si="2">AVERAGE(C3:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4">
+        <f>AVERAGE(O3:O7)</f>
+        <v>0.68666666666666676</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" ref="P8:Y8" si="3">AVERAGE(P3:P7)</f>
+        <v>0.89066666666666661</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="R8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.83466666666666656</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95466666666666666</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91466666666666663</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95733333333333337</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="3"/>
+        <v>0.86826666666666663</v>
+      </c>
+    </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <f>AVERAGE(L3:L7)</f>
-        <v>0.02</v>
-      </c>
-      <c r="N10" s="7">
-        <f>AVERAGE(Y3:Y7)</f>
-        <v>0.86826666666666663</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Data_all/Data_5_all.xlsx
+++ b/Data_all/Data_5_all.xlsx
@@ -230,11 +230,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -247,6 +247,351 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="240465024"/>
+        <c:axId val="240466560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="240465024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="240466560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="240466560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="240465024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71600000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94733333333333325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="240511232"/>
+        <c:axId val="241106944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="240511232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="241106944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="241106944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="240511232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>391583</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159808</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,40 +884,40 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="Y3" sqref="Y3:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -1121,12 +1466,12 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1136,6 +1481,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_5_all.xlsx
+++ b/Data_all/Data_5_all.xlsx
@@ -276,8 +276,56 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -337,11 +385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="240465024"/>
-        <c:axId val="240466560"/>
+        <c:axId val="239768704"/>
+        <c:axId val="239770240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240465024"/>
+        <c:axId val="239768704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240466560"/>
+        <c:crossAx val="239770240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -359,10 +407,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240466560"/>
+        <c:axId val="239770240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -372,7 +420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240465024"/>
+        <c:crossAx val="239768704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -416,8 +464,56 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.16540992849416444</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12190342261169125</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1060062891216048</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11540075100853316</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13516902998344951</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$7</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.16540992849416444</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.12190342261169125</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.1060062891216048</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.11540075100853316</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.13516902998344951</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -477,11 +573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="240511232"/>
-        <c:axId val="241106944"/>
+        <c:axId val="240593152"/>
+        <c:axId val="240603136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240511232"/>
+        <c:axId val="240593152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241106944"/>
+        <c:crossAx val="240603136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,10 +595,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241106944"/>
+        <c:axId val="240603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2"/>
+          <c:max val="3"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -512,7 +608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240511232"/>
+        <c:crossAx val="240593152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -881,15 +977,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -919,7 +1015,7 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -989,7 +1085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1027,6 +1123,10 @@
         <f>AVERAGE(B3:K3)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
+        <v>0.1</v>
+      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
@@ -1064,8 +1164,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.0219999999999998</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.16540992849416444</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1103,6 +1207,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1137,11 +1245,15 @@
         <v>0.9</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>0.85199999999999998</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z7" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.12190342261169125</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1179,6 +1291,10 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1213,11 +1329,15 @@
         <v>0.86</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.71600000000000008</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.1060062891216048</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1255,6 +1375,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1289,11 +1413,15 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80399999999999994</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.11540075100853316</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1331,6 +1459,10 @@
         <f>AVERAGE(B7:K7)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N7" s="3">
         <v>4</v>
       </c>
@@ -1368,8 +1500,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>0.94733333333333325</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.13516902998344951</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1378,43 +1514,43 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:L8" si="2">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:L8" si="4">AVERAGE(C3:C7)</f>
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -1425,51 +1561,51 @@
         <v>0.68666666666666676</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8:Y8" si="3">AVERAGE(P3:P7)</f>
+        <f t="shared" ref="P8:Y8" si="5">AVERAGE(P3:P7)</f>
         <v>0.89066666666666661</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76800000000000002</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83466666666666656</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.95466666666666666</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91466666666666663</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0760000000000001</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86666666666666659</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.95733333333333337</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.86826666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="N10" s="7"/>
     </row>
